--- a/牧鑫资产 暑期模拟盘.xlsx
+++ b/牧鑫资产 暑期模拟盘.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,13 +65,22 @@
     <t>总市值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>总收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日盈亏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,6 +132,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,9 +428,10 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
+    <col min="7" max="7" width="11.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +447,14 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>45483</v>
       </c>
@@ -452,8 +471,16 @@
         <f>C2/D2</f>
         <v>0.18837977040166282</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G2" s="4">
+        <f>D2-1000000</f>
+        <v>165.78000000002794</v>
+      </c>
+      <c r="H2" s="3">
+        <f>D2/1000000-1</f>
+        <v>1.6578000000011528E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -467,8 +494,16 @@
         <f t="shared" ref="E3:E23" si="0">C3/D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G6" si="1">D3-1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>D3/1000000-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -482,8 +517,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4/1000000-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -497,8 +540,16 @@
         <f t="shared" si="0"/>
         <v>0.37527079652727519</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>-804.20999999996275</v>
+      </c>
+      <c r="H5" s="3">
+        <f>D5/1000000-1</f>
+        <v>-8.0420999999997189E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -512,8 +563,16 @@
         <f t="shared" si="0"/>
         <v>0.99956822475863749</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>1053.2299999999814</v>
+      </c>
+      <c r="H6" s="3">
+        <f>D6/1000000-1</f>
+        <v>1.0532299999999051E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>45484</v>
       </c>
@@ -530,8 +589,16 @@
         <f>C7/D7</f>
         <v>0.50822342383961561</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G7" s="4">
+        <f>D7-D2</f>
+        <v>4221.2199999999721</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7/1000000-1</f>
+        <v>4.3869999999999187E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -545,8 +612,16 @@
         <f>C8/D8</f>
         <v>0.27049476048787746</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:G21" si="2">D8-D3</f>
+        <v>1331.7800000000279</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8/1000000-1</f>
+        <v>1.3317800000001156E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -560,8 +635,16 @@
         <f t="shared" si="0"/>
         <v>0.99920885265634007</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>6601.3699999999953</v>
+      </c>
+      <c r="H9" s="3">
+        <f>D9/1000000-1</f>
+        <v>6.6013700000000508E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -575,8 +658,16 @@
         <f t="shared" si="0"/>
         <v>0.38280013524795986</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>12191</v>
+      </c>
+      <c r="H10" s="3">
+        <f>D10/1000000-1</f>
+        <v>1.138678999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -590,165 +681,305 @@
         <f t="shared" si="0"/>
         <v>0.99957370329558037</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>12865</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11/1000000-1</f>
+        <v>1.3918230000000031E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>45485</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="2">
+        <v>880967</v>
+      </c>
+      <c r="D12" s="2">
+        <v>978544.21</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9002832891934438</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>-25842.790000000037</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D12/1000000-1</f>
+        <v>-2.1455790000000086E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="2">
+        <v>369835</v>
+      </c>
+      <c r="D13" s="2">
+        <v>998039.07</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.37056164544740722</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>-3292.7100000000792</v>
+      </c>
+      <c r="H13" s="3">
+        <f>D13/1000000-1</f>
+        <v>-1.9609300000000829E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="2">
+        <v>998246</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000596.44</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99765096106078499</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>-6004.9300000000512</v>
+      </c>
+      <c r="H14" s="3">
+        <f>D14/1000000-1</f>
+        <v>5.9644000000003139E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="2">
+        <v>461722</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1013925.75</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45538048520811314</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>2538.9599999999627</v>
+      </c>
+      <c r="H15" s="3">
+        <f>D15/1000000-1</f>
+        <v>1.392575000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="2">
+        <v>1012099</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1012531.23</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99957311933973636</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>-1387</v>
+      </c>
+      <c r="H16" s="3">
+        <f>D16/1000000-1</f>
+        <v>1.2531230000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>45488</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="2">
+        <v>886708</v>
+      </c>
+      <c r="D17" s="2">
+        <v>987437.21</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.897989250374715</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>8893</v>
+      </c>
+      <c r="H17" s="3">
+        <f>D17/1000000-1</f>
+        <v>-1.2562790000000046E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="2">
+        <v>851615</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1002004.37</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84991146296098485</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>3965.3000000000466</v>
+      </c>
+      <c r="H18" s="3">
+        <f>D18/1000000-1</f>
+        <v>2.0043700000000886E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="2">
+        <v>966151</v>
+      </c>
+      <c r="D19" s="2">
+        <v>968440.05</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99763635343251234</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>-32156.389999999898</v>
+      </c>
+      <c r="H19" s="3">
+        <f>D19/1000000-1</f>
+        <v>-3.1559950000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="2">
+        <v>465150</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1017353.75</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45721559487051577</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>3428</v>
+      </c>
+      <c r="H20" s="3">
+        <f>D20/1000000-1</f>
+        <v>1.7353750000000057E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="2">
+        <v>1018046</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1018478.23</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99957561194017863</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>5947</v>
+      </c>
+      <c r="H21" s="3">
+        <f>D21/1000000-1</f>
+        <v>1.8478229999999929E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>45489</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>3</v>
       </c>

--- a/牧鑫资产 暑期模拟盘.xlsx
+++ b/牧鑫资产 暑期模拟盘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="22">
   <si>
     <t>交易日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,46 @@
     <t>当日盈亏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>屈笑宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢东方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐鹏淦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杰平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈笑宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢东方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐鹏淦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杰平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +122,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +138,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,21 +206,108 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,1060 +589,1601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="7" max="7" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="4" width="15" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="8"/>
+    <col min="9" max="18" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>45483</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="14">
         <v>188411</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="14">
         <v>1000165.78</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="15">
         <f>C2/D2</f>
         <v>0.18837977040166282</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="13"/>
+      <c r="G2" s="16">
         <f>D2-1000000</f>
         <v>165.78000000002794</v>
       </c>
-      <c r="H2" s="3">
-        <f>D2/1000000-1</f>
+      <c r="H2" s="15">
+        <f t="shared" ref="H2:H31" si="0">D2/1000000-1</f>
         <v>1.6578000000011528E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="18">
         <v>1000000</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E23" si="0">C3/D3</f>
+      <c r="E3" s="19">
+        <f t="shared" ref="E3:E31" si="1">C3/D3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G6" si="1">D3-1000000</f>
+      <c r="F3" s="17"/>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3:G6" si="2">D3-1000000</f>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <f>D3/1000000-1</f>
+      <c r="H3" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="22">
         <v>1000000</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" si="0"/>
+      <c r="E4" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" si="1"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="24">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="3">
-        <f>D4/1000000-1</f>
+      <c r="H4" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="26">
         <v>374969</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="26">
         <v>999195.79</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
+      <c r="E5" s="27">
+        <f t="shared" si="1"/>
         <v>0.37527079652727519</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28">
+        <f t="shared" si="2"/>
         <v>-804.20999999996275</v>
       </c>
-      <c r="H5" s="3">
-        <f>D5/1000000-1</f>
+      <c r="H5" s="27">
+        <f t="shared" si="0"/>
         <v>-8.0420999999997189E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>1000621</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="30">
         <v>1001053.23</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
+      <c r="E6" s="31">
+        <f t="shared" si="1"/>
         <v>0.99956822475863749</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="32">
+        <f t="shared" si="2"/>
         <v>1053.2299999999814</v>
       </c>
-      <c r="H6" s="3">
-        <f>D6/1000000-1</f>
+      <c r="H6" s="31">
+        <f t="shared" si="0"/>
         <v>1.0532299999999051E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <v>45484</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14">
         <v>510453</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <v>1004387</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="15">
         <f>C7/D7</f>
         <v>0.50822342383961561</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="13"/>
+      <c r="G7" s="16">
         <f>D7-D2</f>
         <v>4221.2199999999721</v>
       </c>
-      <c r="H7" s="3">
-        <f>D7/1000000-1</f>
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
         <v>4.3869999999999187E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18">
         <v>270855</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="18">
         <v>1001331.78</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="19">
         <f>C8/D8</f>
         <v>0.27049476048787746</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8:G21" si="2">D8-D3</f>
+      <c r="F8" s="17"/>
+      <c r="G8" s="20">
+        <f t="shared" ref="G8:G31" si="3">D8-D3</f>
         <v>1331.7800000000279</v>
       </c>
-      <c r="H8" s="3">
-        <f>D8/1000000-1</f>
+      <c r="H8" s="19">
+        <f t="shared" si="0"/>
         <v>1.3317800000001156E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1005805</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1006601.37</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.99920885265634007</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="24">
+        <f t="shared" si="3"/>
+        <v>6601.3699999999953</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>6.6013700000000508E-3</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="26">
+        <v>387159</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1011386.79</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="1"/>
+        <v>0.38280013524795986</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28">
+        <f t="shared" si="3"/>
+        <v>12191</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="0"/>
+        <v>1.138678999999998E-2</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1013486</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1013918.23</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99957370329558037</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="32">
+        <f t="shared" si="3"/>
+        <v>12865</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="0"/>
+        <v>1.3918230000000031E-2</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>45485</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14">
+        <v>880967</v>
+      </c>
+      <c r="D12" s="14">
+        <v>978544.21</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9002832891934438</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="16">
+        <f t="shared" si="3"/>
+        <v>-25842.790000000037</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.1455790000000086E-2</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="18">
+        <v>369835</v>
+      </c>
+      <c r="D13" s="18">
+        <v>998039.07</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.37056164544740722</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20">
+        <f t="shared" si="3"/>
+        <v>-3292.7100000000792</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>-1.9609300000000829E-3</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22">
+        <v>998246</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1000596.44</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.99765096106078499</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="24">
+        <f t="shared" si="3"/>
+        <v>-6004.9300000000512</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9644000000003139E-4</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="26">
+        <v>461722</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1013925.75</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.45538048520811314</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28">
+        <f t="shared" si="3"/>
+        <v>2538.9599999999627</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="0"/>
+        <v>1.392575000000007E-2</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1012099</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1012531.23</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99957311933973636</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="32">
+        <f t="shared" si="3"/>
+        <v>-1387</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="0"/>
+        <v>1.2531230000000004E-2</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>45488</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="14">
+        <v>886708</v>
+      </c>
+      <c r="D17" s="14">
+        <v>987437.21</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.897989250374715</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16">
+        <f t="shared" si="3"/>
+        <v>8893</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.2562790000000046E-2</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="18">
+        <v>851615</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1002004.37</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="1"/>
+        <v>0.84991146296098485</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20">
+        <f t="shared" si="3"/>
+        <v>3965.3000000000466</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0043700000000886E-3</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="22">
+        <v>966151</v>
+      </c>
+      <c r="D19" s="22">
+        <v>968440.05</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="1"/>
+        <v>0.99763635343251234</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="24">
+        <f t="shared" si="3"/>
+        <v>-32156.389999999898</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.1559950000000003E-2</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="26">
+        <v>465150</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1017353.75</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="1"/>
+        <v>0.45721559487051577</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28">
+        <f t="shared" si="3"/>
+        <v>3428</v>
+      </c>
+      <c r="H20" s="27">
+        <f t="shared" si="0"/>
+        <v>1.7353750000000057E-2</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1018046</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1018478.23</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99957561194017863</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32">
+        <f t="shared" si="3"/>
+        <v>5947</v>
+      </c>
+      <c r="H21" s="31">
+        <f t="shared" si="0"/>
+        <v>1.8478229999999929E-2</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>45489</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="14">
+        <v>913969</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1011734.38</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.90336853038442755</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="16">
+        <f t="shared" si="3"/>
+        <v>24297.170000000042</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1734380000000044E-2</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="18">
+        <v>916746</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1007867.09</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="1"/>
+        <v>0.90959017225177974</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="20">
+        <f t="shared" si="3"/>
+        <v>5862.7199999999721</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="0"/>
+        <v>7.8670899999999655E-3</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="22">
+        <v>471560</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1002315.34</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.47047070036860855</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="24">
+        <f t="shared" si="3"/>
+        <v>33875.289999999921</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3153399999999991E-3</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="26">
+        <v>462150</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1016153.75</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="1"/>
+        <v>0.45480322244542226</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="28">
+        <f t="shared" si="3"/>
+        <v>-1200</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="0"/>
+        <v>1.6153749999999967E-2</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1028475</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1028907.23</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99957991353603382</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="32">
+        <f t="shared" si="3"/>
+        <v>10429</v>
+      </c>
+      <c r="H26" s="31">
+        <f t="shared" si="0"/>
+        <v>2.890722999999995E-2</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>45490</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="14">
+        <v>886259</v>
+      </c>
+      <c r="D27" s="14">
+        <v>988055.95</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.89697248419990794</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="16">
+        <f t="shared" si="3"/>
+        <v>-23678.430000000051</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="0"/>
+        <v>-1.1944050000000095E-2</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="18">
+        <v>884514</v>
+      </c>
+      <c r="D28" s="18">
+        <v>976604.88</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" si="1"/>
+        <v>0.90570303109687511</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="20">
+        <f t="shared" si="3"/>
+        <v>-31262.209999999963</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="0"/>
+        <v>-2.3395119999999991E-2</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="22">
+        <v>490530</v>
+      </c>
+      <c r="D29" s="22">
+        <v>991504.74</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" si="1"/>
+        <v>0.49473288448424363</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="24">
+        <f t="shared" si="3"/>
+        <v>-10810.599999999977</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="0"/>
+        <v>-8.4952600000000045E-3</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="26">
+        <v>459770</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1013773.75</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>0.45352328367152928</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="28">
+        <f t="shared" si="3"/>
+        <v>-2380</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3773749999999918E-2</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="30">
+        <v>1028542</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1028974.23</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="1"/>
+        <v>0.99957994088928737</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="32">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="H31" s="31">
+        <f t="shared" si="0"/>
+        <v>2.897422999999999E-2</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
-        <v>1005805</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1006601.37</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99920885265634007</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>6601.3699999999953</v>
-      </c>
-      <c r="H9" s="3">
-        <f>D9/1000000-1</f>
-        <v>6.6013700000000508E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
-        <v>387159</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1011386.79</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38280013524795986</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>12191</v>
-      </c>
-      <c r="H10" s="3">
-        <f>D10/1000000-1</f>
-        <v>1.138678999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>1013486</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1013918.23</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99957370329558037</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>12865</v>
-      </c>
-      <c r="H11" s="3">
-        <f>D11/1000000-1</f>
-        <v>1.3918230000000031E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>45485</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2">
-        <v>880967</v>
-      </c>
-      <c r="D12" s="2">
-        <v>978544.21</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9002832891934438</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="2"/>
-        <v>-25842.790000000037</v>
-      </c>
-      <c r="H12" s="3">
-        <f>D12/1000000-1</f>
-        <v>-2.1455790000000086E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
-        <v>369835</v>
-      </c>
-      <c r="D13" s="2">
-        <v>998039.07</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.37056164544740722</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>-3292.7100000000792</v>
-      </c>
-      <c r="H13" s="3">
-        <f>D13/1000000-1</f>
-        <v>-1.9609300000000829E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
-        <v>998246</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1000596.44</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99765096106078499</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>-6004.9300000000512</v>
-      </c>
-      <c r="H14" s="3">
-        <f>D14/1000000-1</f>
-        <v>5.9644000000003139E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
-        <v>461722</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1013925.75</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.45538048520811314</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="2"/>
-        <v>2538.9599999999627</v>
-      </c>
-      <c r="H15" s="3">
-        <f>D15/1000000-1</f>
-        <v>1.392575000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
-        <v>1012099</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1012531.23</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99957311933973636</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="2"/>
-        <v>-1387</v>
-      </c>
-      <c r="H16" s="3">
-        <f>D16/1000000-1</f>
-        <v>1.2531230000000004E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>45488</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>886708</v>
-      </c>
-      <c r="D17" s="2">
-        <v>987437.21</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.897989250374715</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="2"/>
-        <v>8893</v>
-      </c>
-      <c r="H17" s="3">
-        <f>D17/1000000-1</f>
-        <v>-1.2562790000000046E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
-        <v>851615</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1002004.37</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.84991146296098485</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="2"/>
-        <v>3965.3000000000466</v>
-      </c>
-      <c r="H18" s="3">
-        <f>D18/1000000-1</f>
-        <v>2.0043700000000886E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
-        <v>966151</v>
-      </c>
-      <c r="D19" s="2">
-        <v>968440.05</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99763635343251234</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="2"/>
-        <v>-32156.389999999898</v>
-      </c>
-      <c r="H19" s="3">
-        <f>D19/1000000-1</f>
-        <v>-3.1559950000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
-        <v>465150</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1017353.75</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.45721559487051577</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="2"/>
-        <v>3428</v>
-      </c>
-      <c r="H20" s="3">
-        <f>D20/1000000-1</f>
-        <v>1.7353750000000057E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
-        <v>1018046</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1018478.23</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.99957561194017863</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="2"/>
-        <v>5947</v>
-      </c>
-      <c r="H21" s="3">
-        <f>D21/1000000-1</f>
-        <v>1.8478229999999929E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>45489</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B75" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B84" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B94" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B102" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B104" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B105" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B106" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B107" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B108" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B109" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B110" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B111" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B112" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B113" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B114" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B115" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B116" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B117" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B118" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B119" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B120" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B121" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B122" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B124" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B125" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B127" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B128" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B129" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
         <v>5</v>
       </c>
     </row>
